--- a/output/APEX_27826024000150.xlsx
+++ b/output/APEX_27826024000150.xlsx
@@ -790,10 +790,10 @@
         <v>44165</v>
       </c>
       <c r="B37">
-        <v>0.4483683599999999</v>
+        <v>0.4616928899999999</v>
       </c>
       <c r="C37">
-        <v>0.04723832001892991</v>
+        <v>0.0568725807481838</v>
       </c>
     </row>
   </sheetData>

--- a/output/APEX_27826024000150.xlsx
+++ b/output/APEX_27826024000150.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>APEX LONG BIASED FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,414 +383,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43100</v>
       </c>
       <c r="B2">
-        <v>0.01783343000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43131</v>
       </c>
       <c r="B3">
-        <v>0.07212492999999998</v>
-      </c>
-      <c r="C3">
         <v>0.05334026020347937</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43159</v>
       </c>
       <c r="B4">
-        <v>0.09852719999999993</v>
-      </c>
-      <c r="C4">
         <v>0.02462611330192654</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43190</v>
       </c>
       <c r="B5">
-        <v>0.1395945000000001</v>
-      </c>
-      <c r="C5">
         <v>0.03738396281858125</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43220</v>
       </c>
       <c r="B6">
-        <v>0.1882846499999999</v>
-      </c>
-      <c r="C6">
         <v>0.04272585555651576</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43251</v>
       </c>
       <c r="B7">
-        <v>0.1196101700000001</v>
-      </c>
-      <c r="C7">
         <v>-0.0577929539020805</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43281</v>
       </c>
       <c r="B8">
-        <v>0.1390011900000001</v>
-      </c>
-      <c r="C8">
         <v>0.01731943896150923</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43312</v>
       </c>
       <c r="B9">
-        <v>0.16562342</v>
-      </c>
-      <c r="C9">
         <v>0.02337331183999902</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43343</v>
       </c>
       <c r="B10">
-        <v>0.14661002</v>
-      </c>
-      <c r="C10">
         <v>-0.01631178618562756</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43373</v>
       </c>
       <c r="B11">
-        <v>0.15372838</v>
-      </c>
-      <c r="C11">
         <v>0.006208178784274043</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43404</v>
       </c>
       <c r="B12">
-        <v>0.2272461100000001</v>
-      </c>
-      <c r="C12">
         <v>0.06372187013376585</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43434</v>
       </c>
       <c r="B13">
-        <v>0.26778214</v>
-      </c>
-      <c r="C13">
         <v>0.0330300741389189</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43465</v>
       </c>
       <c r="B14">
-        <v>0.29348782</v>
-      </c>
-      <c r="C14">
         <v>0.02027610201229058</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43496</v>
       </c>
       <c r="B15">
-        <v>0.3832715600000001</v>
-      </c>
-      <c r="C15">
         <v>0.06941212635461858</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43524</v>
       </c>
       <c r="B16">
-        <v>0.3708357600000001</v>
-      </c>
-      <c r="C16">
         <v>-0.008990136398090876</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43555</v>
       </c>
       <c r="B17">
-        <v>0.34341208</v>
-      </c>
-      <c r="C17">
         <v>-0.02000508069617335</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43585</v>
       </c>
       <c r="B18">
-        <v>0.35034074</v>
-      </c>
-      <c r="C18">
         <v>0.005157509079418254</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43616</v>
       </c>
       <c r="B19">
-        <v>0.36079909</v>
-      </c>
-      <c r="C19">
         <v>0.007744971095221542</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43646</v>
       </c>
       <c r="B20">
-        <v>0.4102199500000001</v>
-      </c>
-      <c r="C20">
         <v>0.03631752869558436</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43677</v>
       </c>
       <c r="B21">
-        <v>0.46788338</v>
-      </c>
-      <c r="C21">
         <v>0.04088967114668884</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43708</v>
       </c>
       <c r="B22">
-        <v>0.50802861</v>
-      </c>
-      <c r="C22">
         <v>0.02734905956902378</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43738</v>
       </c>
       <c r="B23">
-        <v>0.49554926</v>
-      </c>
-      <c r="C23">
         <v>-0.008275274034754587</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43769</v>
       </c>
       <c r="B24">
-        <v>0.55083412</v>
-      </c>
-      <c r="C24">
         <v>0.03696625813582366</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43799</v>
       </c>
       <c r="B25">
-        <v>0.57516912</v>
-      </c>
-      <c r="C25">
         <v>0.01569155571583636</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43830</v>
       </c>
       <c r="B26">
-        <v>0.6691819800000001</v>
-      </c>
-      <c r="C26">
         <v>0.05968429599483271</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43861</v>
       </c>
       <c r="B27">
-        <v>0.75657956</v>
-      </c>
-      <c r="C27">
         <v>0.05235952762921636</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43890</v>
       </c>
       <c r="B28">
-        <v>0.6250768799999999</v>
-      </c>
-      <c r="C28">
         <v>-0.07486292280436191</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43921</v>
       </c>
       <c r="B29">
-        <v>0.12477658</v>
-      </c>
-      <c r="C29">
         <v>-0.3078625424786057</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43951</v>
       </c>
       <c r="B30">
-        <v>0.2450653300000001</v>
-      </c>
-      <c r="C30">
         <v>0.1069445720500333</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43982</v>
       </c>
       <c r="B31">
-        <v>0.3054581199999999</v>
-      </c>
-      <c r="C31">
         <v>0.04850571977616625</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44012</v>
       </c>
       <c r="B32">
-        <v>0.4102612800000001</v>
-      </c>
-      <c r="C32">
         <v>0.08028075232317677</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>44043</v>
       </c>
       <c r="B33">
-        <v>0.48082925</v>
-      </c>
-      <c r="C33">
         <v>0.05003893321101449</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>44074</v>
       </c>
       <c r="B34">
-        <v>0.4913122999999999</v>
-      </c>
-      <c r="C34">
         <v>0.007079175401215165</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>44104</v>
       </c>
       <c r="B35">
-        <v>0.43156946</v>
-      </c>
-      <c r="C35">
         <v>-0.0400605828839472</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>44135</v>
       </c>
       <c r="B36">
-        <v>0.38303606</v>
-      </c>
-      <c r="C36">
         <v>-0.03390223203001264</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>44165</v>
       </c>
       <c r="B37">
-        <v>0.4616928899999999</v>
-      </c>
-      <c r="C37">
-        <v>0.0568725807481838</v>
+        <v>0.04356683223429458</v>
       </c>
     </row>
   </sheetData>
